--- a/Jogos_do_Dia/2024-01-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,124 +673,124 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="K2" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="M2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.38</v>
       </c>
-      <c r="N2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P2" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.36</v>
-      </c>
       <c r="X2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1.31</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AC2" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="AE2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>1.8</v>
       </c>
-      <c r="AF2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AK2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.98</v>
+        <v>2.37</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3">
@@ -812,124 +812,124 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="K3" t="n">
-        <v>3.04</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="M3" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="N3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN3" t="n">
         <v>2.65</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AO3" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4">
@@ -1090,124 +1090,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I5" t="n">
         <v>5.25</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.05</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.94</v>
+        <v>1.77</v>
       </c>
       <c r="K5" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>4.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="N5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>3.25</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AH5" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -1229,121 +1229,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.38</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>2.05</v>
       </c>
-      <c r="I6" t="n">
-        <v>5.25</v>
-      </c>
       <c r="J6" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V6" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="W6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF6" t="n">
         <v>9</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AG6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH6" t="n">
         <v>1.34</v>
       </c>
-      <c r="R6" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AI6" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.26</v>
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1360,138 +1360,138 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.15</v>
+        <v>2.62</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>3.57</v>
       </c>
       <c r="L7" t="n">
-        <v>11.5</v>
+        <v>2.51</v>
       </c>
       <c r="M7" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P7" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="R7" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF7" t="n">
         <v>7.5</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14</v>
-      </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>2.02</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1499,63 +1499,63 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N8" t="n">
         <v>4.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.63</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P8" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="R8" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>2.9</v>
       </c>
       <c r="U8" t="n">
         <v>1.95</v>
@@ -1564,67 +1564,67 @@
         <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="X8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC8" t="n">
         <v>1.31</v>
       </c>
-      <c r="Y8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.16</v>
-      </c>
       <c r="AD8" t="n">
-        <v>2.27</v>
+        <v>3.66</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.43</v>
+        <v>1.14</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>1.91</v>
       </c>
       <c r="J9" t="n">
-        <v>6.2</v>
+        <v>6.95</v>
       </c>
       <c r="K9" t="n">
-        <v>3.98</v>
+        <v>4.48</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.33</v>
@@ -1691,10 +1691,10 @@
         <v>4.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1736,22 +1736,22 @@
         <v>1.26</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AN9" t="n">
         <v>2</v>
@@ -1760,16 +1760,16 @@
         <v>1.8</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,127 +1781,266 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>England Championship</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>29</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Leeds United</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Norwich City</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>1.95</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2.4</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>6.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="J11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.33</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>3.25</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>1.03</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>15</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>1.22</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R11" t="n">
         <v>4.33</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="S11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.83</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V11" t="n">
         <v>1.83</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W11" t="n">
         <v>1.11</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X11" t="n">
         <v>1.19</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y11" t="n">
         <v>2.7</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z11" t="n">
         <v>2.43</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA11" t="n">
         <v>1.07</v>
       </c>
-      <c r="AB10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AB11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AC11" t="n">
         <v>1.26</v>
       </c>
-      <c r="AD10" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AD11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE11" t="n">
         <v>1.26</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF11" t="n">
         <v>10</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG11" t="n">
         <v>4.86</v>
       </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AH11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1.28</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK11" t="n">
         <v>3.25</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL11" t="n">
         <v>1.51</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM11" t="n">
         <v>2.3</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN11" t="n">
         <v>2</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO11" t="n">
         <v>1.8</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP11" t="n">
         <v>2.45</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ11" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2024-01-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.42</v>
@@ -718,10 +718,10 @@
         <v>3.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
         <v>1.78</v>
@@ -739,10 +739,10 @@
         <v>1.58</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB2" t="n">
         <v>1.31</v>
@@ -830,13 +830,13 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.19</v>
+        <v>2.56</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>2.98</v>
+        <v>2.61</v>
       </c>
       <c r="M3" t="n">
         <v>1.38</v>
@@ -857,10 +857,10 @@
         <v>3.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -878,10 +878,10 @@
         <v>1.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AB3" t="n">
         <v>1.25</v>
@@ -1017,10 +1017,10 @@
         <v>1.35</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AB4" t="n">
         <v>1.36</v>
@@ -1090,121 +1090,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.38</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>2.05</v>
       </c>
-      <c r="I5" t="n">
-        <v>5.25</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.77</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.3</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="N5" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF5" t="n">
         <v>9</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AG5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH5" t="n">
         <v>1.34</v>
       </c>
-      <c r="R5" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AI5" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.26</v>
@@ -1229,121 +1229,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I6" t="n">
         <v>5.25</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.05</v>
-      </c>
       <c r="J6" t="n">
-        <v>4.85</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>4.25</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="N6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG6" t="n">
         <v>3.25</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AH6" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.87</v>
+        <v>2.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.26</v>
@@ -1386,13 +1386,13 @@
         <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="K7" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,10 +1413,10 @@
         <v>3.52</v>
       </c>
       <c r="S7" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="U7" t="n">
         <v>1.7</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AB7" t="n">
         <v>1.41</v>
@@ -1525,13 +1525,13 @@
         <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="K8" t="n">
-        <v>5.25</v>
+        <v>5.45</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.18</v>
@@ -1552,10 +1552,10 @@
         <v>7.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="T8" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="U8" t="n">
         <v>1.95</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,35 +1642,35 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>6.95</v>
+        <v>1.42</v>
       </c>
       <c r="K9" t="n">
-        <v>4.48</v>
+        <v>4.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.33</v>
@@ -1679,7 +1679,7 @@
         <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P9" t="n">
         <v>15</v>
@@ -1688,70 +1688,70 @@
         <v>1.22</v>
       </c>
       <c r="R9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="T9" t="n">
-        <v>2.03</v>
+        <v>2.29</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>2.85</v>
+        <v>1.11</v>
       </c>
       <c r="X9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.09</v>
+        <v>2.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.3</v>
+        <v>2.43</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.2</v>
+        <v>1.07</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.43</v>
+        <v>1.84</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.93</v>
+        <v>1.26</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.65</v>
+        <v>1.26</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.26</v>
+        <v>4.86</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.85</v>
+        <v>5.3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="AN9" t="n">
         <v>2</v>
@@ -1760,10 +1760,10 @@
         <v>1.8</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>2.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="M10" t="n">
         <v>1.44</v>
@@ -1830,10 +1830,10 @@
         <v>3.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
         <v>1.95</v>
@@ -1908,7 +1908,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,35 +1920,35 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>6.5</v>
+        <v>1.91</v>
       </c>
       <c r="J11" t="n">
-        <v>1.45</v>
+        <v>6.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.63</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>6.4</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.33</v>
@@ -1957,7 +1957,7 @@
         <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P11" t="n">
         <v>15</v>
@@ -1966,70 +1966,70 @@
         <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="T11" t="n">
-        <v>2.37</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.11</v>
+        <v>2.85</v>
       </c>
       <c r="X11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.7</v>
+        <v>1.09</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.43</v>
+        <v>1.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.07</v>
+        <v>2.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.26</v>
+        <v>1.93</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.1</v>
+        <v>3.36</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.26</v>
+        <v>4.65</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.86</v>
+        <v>1.26</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.3</v>
+        <v>4.85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
@@ -2038,10 +2038,10 @@
         <v>1.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
